--- a/bases-para-cyn/titularesxprovinciayano.xlsx
+++ b/bases-para-cyn/titularesxprovinciayano.xlsx
@@ -365,17 +365,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>tot_titulares_2020</t>
+          <t>Titulares 2020</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>tot_titulares_2021</t>
+          <t>Titulares 2021</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>tot_titulares_2022</t>
+          <t>Titulares 2022</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
